--- a/branches/riziv/StructureDefinition-MedRecordAdministration.xlsx
+++ b/branches/riziv/StructureDefinition-MedRecordAdministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="401">
   <si>
     <t>Path</t>
   </si>
@@ -501,20 +501,102 @@
     <t>treatmentPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/treatmentPlan}
+    <t xml:space="preserve">Extension {event-basedOn}
 </t>
   </si>
   <si>
-    <t>Based On</t>
-  </si>
-  <si>
-    <t>The Medication Treatment that this resource belongs to or is based on</t>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ORC in proximity to EVN segment</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
+</t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
+  </si>
+  <si>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
     <t>MedicationAdministration.modifierExtension</t>
   </si>
   <si>
@@ -691,13 +773,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -979,9 +1054,6 @@
   </si>
   <si>
     <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
   </si>
   <si>
     <t>InFullfillmentOf-&gt;SubstanceAdministration</t>
@@ -1345,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3431,16 +3503,16 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3448,43 +3520,39 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3532,39 +3600,39 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3575,10 +3643,10 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3587,17 +3655,15 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3634,19 +3700,19 @@
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3658,16 +3724,16 @@
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3678,7 +3744,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3686,10 +3752,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3698,25 +3764,27 @@
         <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>41</v>
@@ -3758,25 +3826,25 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -3790,7 +3858,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3798,10 +3866,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3810,16 +3878,16 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3858,25 +3926,23 @@
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -3885,10 +3951,10 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3900,11 +3966,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3916,26 +3984,24 @@
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3960,13 +4026,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3984,10 +4050,10 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3999,16 +4065,16 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4016,9 +4082,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4027,7 +4095,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>51</v>
@@ -4039,13 +4107,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4072,13 +4140,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4096,7 +4164,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4105,30 +4173,30 @@
         <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4142,7 +4210,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4151,13 +4219,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4184,13 +4252,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4208,7 +4276,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4220,13 +4288,13 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4240,7 +4308,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4248,10 +4316,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>41</v>
@@ -4260,20 +4328,18 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4298,95 +4364,95 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4394,7 +4460,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>41</v>
@@ -4412,13 +4478,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4436,7 +4502,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>50</v>
@@ -4448,31 +4514,29 @@
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4484,26 +4548,24 @@
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4540,22 +4602,20 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
@@ -4567,53 +4627,55 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4664,10 +4726,10 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>50</v>
@@ -4679,56 +4741,60 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4776,39 +4842,39 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4822,7 +4888,7 @@
         <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -4831,15 +4897,17 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4888,7 +4956,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4903,13 +4971,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4920,7 +4988,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4928,10 +4996,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -4943,13 +5011,13 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4988,23 +5056,25 @@
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -5013,28 +5083,26 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5043,10 +5111,10 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5055,13 +5123,13 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5112,13 +5180,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -5127,16 +5195,16 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5144,17 +5212,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -5163,21 +5229,23 @@
         <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5202,13 +5270,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5226,7 +5294,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -5241,16 +5309,16 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5258,7 +5326,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5278,16 +5346,16 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5314,13 +5382,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5338,7 +5406,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5353,24 +5421,24 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5384,7 +5452,7 @@
         <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5393,13 +5461,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5426,13 +5494,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5450,7 +5518,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5462,13 +5530,13 @@
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5482,18 +5550,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5502,19 +5570,19 @@
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5540,99 +5608,97 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="C38" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5656,13 +5722,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5680,41 +5746,43 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5726,24 +5794,26 @@
         <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5768,13 +5838,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5792,10 +5862,10 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>50</v>
@@ -5807,24 +5877,24 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5838,7 +5908,7 @@
         <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -5847,13 +5917,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5904,7 +5974,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>50</v>
@@ -5919,16 +5989,16 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -5936,7 +6006,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5947,7 +6017,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>51</v>
@@ -5959,13 +6029,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5992,13 +6062,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6016,13 +6086,13 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
@@ -6031,24 +6101,24 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6062,7 +6132,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -6071,17 +6141,15 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6130,7 +6198,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6145,24 +6213,24 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6170,32 +6238,30 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6232,22 +6298,20 @@
         <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>50</v>
@@ -6259,16 +6323,16 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6276,9 +6340,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>41</v>
       </c>
@@ -6287,7 +6353,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>51</v>
@@ -6296,16 +6362,16 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6356,13 +6422,13 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6371,16 +6437,16 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6388,9 +6454,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6399,7 +6467,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>51</v>
@@ -6408,16 +6476,16 @@
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6468,13 +6536,13 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -6483,16 +6551,16 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6500,7 +6568,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6511,7 +6579,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>51</v>
@@ -6520,16 +6588,16 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6580,31 +6648,31 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>326</v>
+        <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6612,7 +6680,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6724,7 +6792,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6838,11 +6906,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6864,16 +6932,16 @@
         <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -6922,7 +6990,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6954,7 +7022,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6977,13 +7045,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7010,13 +7078,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -7034,7 +7102,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7049,10 +7117,10 @@
         <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
@@ -7066,7 +7134,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7074,7 +7142,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>50</v>
@@ -7086,20 +7154,18 @@
         <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7124,13 +7190,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7148,10 +7214,10 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>50</v>
@@ -7163,24 +7229,24 @@
         <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7191,10 +7257,10 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -7203,13 +7269,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7239,10 +7305,10 @@
         <v>116</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7260,13 +7326,13 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
@@ -7275,24 +7341,24 @@
         <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7303,10 +7369,10 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -7315,16 +7381,16 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7350,13 +7416,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7374,13 +7440,13 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
@@ -7389,24 +7455,24 @@
         <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>357</v>
+        <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7420,7 +7486,7 @@
         <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -7429,16 +7495,16 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7488,7 +7554,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7503,24 +7569,24 @@
         <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7531,10 +7597,10 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -7543,17 +7609,15 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7602,13 +7666,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -7620,21 +7684,21 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7648,7 +7712,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -7657,17 +7721,15 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -7716,7 +7778,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7731,23 +7793,1271 @@
         <v>62</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X64" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN56" t="s" s="2">
+      <c r="Y64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN56">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7757,7 +9067,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
